--- a/tests/fixtures/test_input.xlsx
+++ b/tests/fixtures/test_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anil/src/seb_to_goodbudget/tests/fixtures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361190DB-7165-164A-AE70-F50D3900B2C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C92E80A-4394-2041-B2AD-1F079519865F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="27700" yWindow="4220" windowWidth="21600" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -212,13 +212,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1323,11 +1323,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="14">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
       <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="14">
@@ -1353,12 +1353,12 @@
       <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="18">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
     </row>
     <row r="7" spans="1:6" ht="17">
       <c r="A7" s="11" t="s">
@@ -1392,7 +1392,7 @@
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D9" t="s">
@@ -1412,7 +1412,7 @@
       <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="15" t="s">
         <v>13</v>
       </c>
       <c r="D10" t="s">
@@ -1432,7 +1432,7 @@
       <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="15" t="s">
         <v>16</v>
       </c>
       <c r="D11" t="s">
